--- a/nmadb/480001.xlsx
+++ b/nmadb/480001.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7155"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -100,8 +100,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -590,14 +590,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
@@ -609,7 +609,7 @@
     <col min="12" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -649,7 +649,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="8"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="9">
         <v>2007</v>
       </c>
@@ -673,10 +673,12 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="9"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
       <c r="D3" s="8">
         <v>2</v>
       </c>
@@ -696,7 +698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="9">
         <v>2011</v>
       </c>
@@ -723,10 +725,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
       <c r="D5" s="9">
         <v>2</v>
       </c>
@@ -744,7 +748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" s="9">
         <v>2010</v>
       </c>
@@ -771,10 +775,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" s="9"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
       <c r="D7" s="9">
         <v>2</v>
       </c>
@@ -792,7 +798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" s="9">
         <v>2012</v>
       </c>
@@ -819,10 +825,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9">
+        <v>4</v>
+      </c>
       <c r="D9" s="8">
         <v>3</v>
       </c>
@@ -840,10 +848,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9">
+        <v>4</v>
+      </c>
       <c r="D10" s="8">
         <v>5</v>
       </c>
@@ -857,10 +867,12 @@
       <c r="J10" s="11"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9">
+        <v>4</v>
+      </c>
       <c r="D11" s="8">
         <v>7</v>
       </c>
@@ -873,7 +885,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="9">
         <v>2012</v>
       </c>
@@ -895,10 +907,12 @@
       <c r="J12" s="13"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9">
+        <v>5</v>
+      </c>
       <c r="D13" s="9">
         <v>4</v>
       </c>
@@ -911,10 +925,12 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9">
+        <v>5</v>
+      </c>
       <c r="D14" s="9">
         <v>6</v>
       </c>
@@ -925,7 +941,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" s="9">
         <v>2012</v>
       </c>
@@ -945,10 +961,12 @@
         <v>397</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9">
+        <v>6</v>
+      </c>
       <c r="D16" s="9">
         <v>4</v>
       </c>
@@ -959,7 +977,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="9">
         <v>2012</v>
       </c>
@@ -979,10 +997,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9">
+        <v>7</v>
+      </c>
       <c r="D18" s="9">
         <v>4</v>
       </c>
@@ -993,10 +1013,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9">
+        <v>7</v>
+      </c>
       <c r="D19" s="9">
         <v>6</v>
       </c>
@@ -1007,7 +1029,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="9">
         <v>2010</v>
       </c>
@@ -1027,10 +1049,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="C21" s="9">
+        <v>8</v>
+      </c>
       <c r="D21" s="9">
         <v>2</v>
       </c>
@@ -1041,7 +1065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="9">
         <v>2009</v>
       </c>
@@ -1061,10 +1085,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="9"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
+      <c r="C23" s="9">
+        <v>9</v>
+      </c>
       <c r="D23" s="9">
         <v>2</v>
       </c>
@@ -1075,7 +1101,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="9">
         <v>2011</v>
       </c>
@@ -1095,10 +1121,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="C25" s="9">
+        <v>10</v>
+      </c>
       <c r="D25" s="9">
         <v>4</v>
       </c>
@@ -1109,37 +1137,37 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
